--- a/Components/Excel/Business_stats/movies_db_uncleaned copy.xlsx
+++ b/Components/Excel/Business_stats/movies_db_uncleaned copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ded4e9b9b367109/Data_Science_Prep/Components/Excel/Business_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="268" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E2F3F7F-977D-5949-8B9E-7917560BAA6C}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="13_ncr:1_{003C6DE2-9C34-4C76-93DE-71AEC1AF9F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E54ACF6C-8595-954D-85B2-FD9F739AAE44}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="movies" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="movie_actor" sheetId="4" r:id="rId4"/>
     <sheet name="languages" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Food">Table6[]</definedName>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="190">
   <si>
     <t>movie_id</t>
   </si>
@@ -610,6 +611,30 @@
   </si>
   <si>
     <t>% Revenue from Bollywood</t>
+  </si>
+  <si>
+    <t>Key Metrics</t>
+  </si>
+  <si>
+    <t>Marvel Consolidated P&amp;L</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Profit/Loss</t>
+  </si>
+  <si>
+    <t>Profit/Loss %</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Market Share %</t>
   </si>
 </sst>
 </file>
@@ -680,11 +705,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -704,18 +728,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <fill>
@@ -764,6 +776,18 @@
           <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -838,6 +862,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}" name="Movies" displayName="Movies" ref="A1:W40" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A1:W40" xr:uid="{6A7FE39D-5614-4A7F-89B7-C167ABC0A251}"/>
@@ -885,16 +913,16 @@
     <tableColumn id="19" xr3:uid="{0B5A0962-9389-6F47-93F4-B5DC3C98C2B3}" name="currency2" dataDxfId="9">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{78B4ACD9-93D2-C446-8B67-7E3B023AE20D}" name="budget_mill" dataDxfId="4">
+    <tableColumn id="20" xr3:uid="{78B4ACD9-93D2-C446-8B67-7E3B023AE20D}" name="budget_mill" dataDxfId="8">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{451F2A0D-68ED-D34E-89D4-46C09E2C4D5C}" name="Revenue_mill" dataDxfId="3">
+    <tableColumn id="21" xr3:uid="{451F2A0D-68ED-D34E-89D4-46C09E2C4D5C}" name="Revenue_mill" dataDxfId="7">
       <calculatedColumnFormula>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{0FE9E5A8-341A-9546-9D81-A8AB8E727295}" name="Budget_mill_INR" dataDxfId="2">
+    <tableColumn id="22" xr3:uid="{0FE9E5A8-341A-9546-9D81-A8AB8E727295}" name="Budget_mill_INR" dataDxfId="6">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{868C47B0-0912-C14C-9F42-47E509867F53}" name="Revenue_mill_INR" dataDxfId="1">
+    <tableColumn id="23" xr3:uid="{868C47B0-0912-C14C-9F42-47E509867F53}" name="Revenue_mill_INR" dataDxfId="5">
       <calculatedColumnFormula>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -903,7 +931,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}" name="Financials" displayName="Financials" ref="A1:E41" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:E41" xr:uid="{DCEC907F-917F-4689-8EAB-F7CEF660B9E4}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D1A9B0F4-FC15-4DC9-80C7-7EBF56996521}" name="movie_id"/>
@@ -917,7 +945,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}" name="actors" displayName="actors" ref="A1:C68" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:C68" xr:uid="{49E9627B-7F83-4E00-A9BD-B2B85ADBBA2F}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{17C41506-36D4-4294-9829-5A0C52DE3455}" name="actor_id"/>
@@ -929,7 +957,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}" name="movieactor" displayName="movieactor" ref="A1:B86" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:B86" xr:uid="{69F3DFB9-F7AC-4F5D-9639-8E5EFD749C75}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{726AA249-607F-4CEE-9C80-419BD67B7D42}" name="movie_id"/>
@@ -940,7 +968,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}" name="languages" displayName="languages" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:B9" xr:uid="{1C058435-0457-4C21-A779-EC166EB5551A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{E256DBAD-6FC6-4A32-8A1D-C74A5F599F74}" name="language_id"/>
@@ -1226,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView topLeftCell="H23" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="X49" sqref="X49"/>
     </sheetView>
   </sheetViews>
@@ -1396,19 +1424,19 @@
         <f t="array" ref="S2">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>1000</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>12500</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1000</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>12500</v>
       </c>
@@ -1483,19 +1511,19 @@
         <f t="array" ref="S3">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>200</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>954.8</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>16000</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>76384</v>
       </c>
@@ -1570,19 +1598,19 @@
         <f t="array" ref="S4">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>165</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>644.79999999999995</v>
       </c>
-      <c r="V4" s="4">
+      <c r="V4" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>13200</v>
       </c>
-      <c r="W4" s="4">
+      <c r="W4" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>51584</v>
       </c>
@@ -1657,19 +1685,19 @@
         <f t="array" ref="S5">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>180</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>854</v>
       </c>
-      <c r="V5" s="4">
+      <c r="V5" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>14400</v>
       </c>
-      <c r="W5" s="4">
+      <c r="W5" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>68320</v>
       </c>
@@ -1744,19 +1772,19 @@
         <f t="array" ref="S6">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>250</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>670</v>
       </c>
-      <c r="V6" s="4">
+      <c r="V6" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>20000</v>
       </c>
-      <c r="W6" s="4">
+      <c r="W6" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>53600</v>
       </c>
@@ -1831,19 +1859,19 @@
         <f t="array" ref="S7">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="T7" s="3" t="str">
+      <c r="T7" t="str">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="U7" s="3" t="str">
+      <c r="U7" t="str">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="V7" s="4" t="str">
+      <c r="V7" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="W7" s="4" t="str">
+      <c r="W7" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>Not Avaliable</v>
       </c>
@@ -1918,19 +1946,19 @@
         <f t="array" ref="S8">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>2000</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>400</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>2000</v>
       </c>
@@ -2005,19 +2033,19 @@
         <f t="array" ref="S9">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>550</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>4000</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>550</v>
       </c>
-      <c r="W9" s="4">
+      <c r="W9" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>4000</v>
       </c>
@@ -2092,19 +2120,19 @@
         <f t="array" ref="S10">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>390</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>1360</v>
       </c>
-      <c r="V10" s="4">
+      <c r="V10" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>390</v>
       </c>
-      <c r="W10" s="4">
+      <c r="W10" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>1360</v>
       </c>
@@ -2179,19 +2207,19 @@
         <f t="array" ref="S11">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>1400</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>3500</v>
       </c>
-      <c r="V11" s="4">
+      <c r="V11" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1400</v>
       </c>
-      <c r="W11" s="4">
+      <c r="W11" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>3500</v>
       </c>
@@ -2266,19 +2294,19 @@
         <f t="array" ref="S12">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>25</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>73.3</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V12" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>2000</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W12" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>5864</v>
       </c>
@@ -2353,19 +2381,19 @@
         <f t="array" ref="S13">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="T13" s="3" t="str">
+      <c r="T13" t="str">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="U13" s="3" t="str">
+      <c r="U13" t="str">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="V13" s="4" t="str">
+      <c r="V13" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>Not Avaliable</v>
       </c>
-      <c r="W13" s="4" t="str">
+      <c r="W13" s="3" t="str">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>Not Avaliable</v>
       </c>
@@ -2440,19 +2468,19 @@
         <f t="array" ref="S14">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>165</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>701.8</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V14" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>13200</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W14" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>56144</v>
       </c>
@@ -2527,19 +2555,19 @@
         <f t="array" ref="S15">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>55</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>307.10000000000002</v>
       </c>
-      <c r="V15" s="4">
+      <c r="V15" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>4400</v>
       </c>
-      <c r="W15" s="4">
+      <c r="W15" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>24568</v>
       </c>
@@ -2614,19 +2642,19 @@
         <f t="array" ref="S16">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>103</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>460.5</v>
       </c>
-      <c r="V16" s="4">
+      <c r="V16" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>8240</v>
       </c>
-      <c r="W16" s="4">
+      <c r="W16" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>36840</v>
       </c>
@@ -2701,19 +2729,19 @@
         <f t="array" ref="S17">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>2202</v>
       </c>
-      <c r="V17" s="4">
+      <c r="V17" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>16000</v>
       </c>
-      <c r="W17" s="4">
+      <c r="W17" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>176160</v>
       </c>
@@ -2788,19 +2816,19 @@
         <f t="array" ref="S18">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>3.18</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>3.3</v>
       </c>
-      <c r="V18" s="4">
+      <c r="V18" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>254.4</v>
       </c>
-      <c r="W18" s="4">
+      <c r="W18" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>264</v>
       </c>
@@ -2875,19 +2903,19 @@
         <f t="array" ref="S19">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>237</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>2847</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>18960</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>227760</v>
       </c>
@@ -2962,19 +2990,19 @@
         <f t="array" ref="S20">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>7.2</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>291</v>
       </c>
-      <c r="V20" s="4">
+      <c r="V20" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>576</v>
       </c>
-      <c r="W20" s="4">
+      <c r="W20" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>23280</v>
       </c>
@@ -3049,19 +3077,19 @@
         <f t="array" ref="S21">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>185</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>1006</v>
       </c>
-      <c r="V21" s="4">
+      <c r="V21" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>14800</v>
       </c>
-      <c r="W21" s="4">
+      <c r="W21" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>80480</v>
       </c>
@@ -3136,19 +3164,19 @@
         <f t="array" ref="S22">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>22</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>322.2</v>
       </c>
-      <c r="V22" s="4">
+      <c r="V22" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1760</v>
       </c>
-      <c r="W22" s="4">
+      <c r="W22" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>25776</v>
       </c>
@@ -3223,19 +3251,19 @@
         <f t="array" ref="S23">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>63</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>1046</v>
       </c>
-      <c r="V23" s="4">
+      <c r="V23" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>5040</v>
       </c>
-      <c r="W23" s="4">
+      <c r="W23" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>83680</v>
       </c>
@@ -3310,19 +3338,19 @@
         <f t="array" ref="S24">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>15.5</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>263.10000000000002</v>
       </c>
-      <c r="V24" s="4">
+      <c r="V24" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1240</v>
       </c>
-      <c r="W24" s="4">
+      <c r="W24" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>21048</v>
       </c>
@@ -3397,19 +3425,19 @@
         <f t="array" ref="S25">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>400</v>
       </c>
-      <c r="U25" s="3">
+      <c r="U25">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>2798</v>
       </c>
-      <c r="V25" s="4">
+      <c r="V25" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>32000</v>
       </c>
-      <c r="W25" s="4">
+      <c r="W25" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>223840</v>
       </c>
@@ -3484,19 +3512,19 @@
         <f t="array" ref="S26">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>2048</v>
       </c>
-      <c r="V26" s="4">
+      <c r="V26" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>32000</v>
       </c>
-      <c r="W26" s="4">
+      <c r="W26" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>163840</v>
       </c>
@@ -3571,19 +3599,19 @@
         <f t="array" ref="S27">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>70</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>100</v>
       </c>
-      <c r="V27" s="4">
+      <c r="V27" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>70</v>
       </c>
-      <c r="W27" s="4">
+      <c r="W27" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>100</v>
       </c>
@@ -3658,19 +3686,19 @@
         <f t="array" ref="S28">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>120</v>
       </c>
-      <c r="U28" s="3">
+      <c r="U28">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>1350</v>
       </c>
-      <c r="V28" s="4">
+      <c r="V28" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>120</v>
       </c>
-      <c r="W28" s="4">
+      <c r="W28" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>1350</v>
       </c>
@@ -3745,19 +3773,19 @@
         <f t="array" ref="S29">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>410</v>
       </c>
-      <c r="V29" s="4">
+      <c r="V29" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>100</v>
       </c>
-      <c r="W29" s="4">
+      <c r="W29" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>410</v>
       </c>
@@ -3832,19 +3860,19 @@
         <f t="array" ref="S30">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>850</v>
       </c>
-      <c r="U30" s="3">
+      <c r="U30">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>8540</v>
       </c>
-      <c r="V30" s="4">
+      <c r="V30" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>850</v>
       </c>
-      <c r="W30" s="4">
+      <c r="W30" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>8540</v>
       </c>
@@ -3919,19 +3947,19 @@
         <f t="array" ref="S31">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>1000</v>
       </c>
-      <c r="U31" s="3">
+      <c r="U31">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>5900</v>
       </c>
-      <c r="V31" s="4">
+      <c r="V31" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1000</v>
       </c>
-      <c r="W31" s="4">
+      <c r="W31" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>5900</v>
       </c>
@@ -4006,19 +4034,19 @@
         <f t="array" ref="S32">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>3600</v>
       </c>
-      <c r="V32" s="4">
+      <c r="V32" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>2000</v>
       </c>
-      <c r="W32" s="4">
+      <c r="W32" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>3600</v>
       </c>
@@ -4093,19 +4121,19 @@
         <f t="array" ref="S33">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>5500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>12000</v>
       </c>
-      <c r="V33" s="4">
+      <c r="V33" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>5500</v>
       </c>
-      <c r="W33" s="4">
+      <c r="W33" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>12000</v>
       </c>
@@ -4180,19 +4208,19 @@
         <f t="array" ref="S34">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>1800</v>
       </c>
-      <c r="U34" s="3">
+      <c r="U34">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>6500</v>
       </c>
-      <c r="V34" s="4">
+      <c r="V34" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1800</v>
       </c>
-      <c r="W34" s="4">
+      <c r="W34" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>6500</v>
       </c>
@@ -4267,19 +4295,19 @@
         <f t="array" ref="S35">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>250</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>3409</v>
       </c>
-      <c r="V35" s="4">
+      <c r="V35" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>250</v>
       </c>
-      <c r="W35" s="4">
+      <c r="W35" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>3409</v>
       </c>
@@ -4354,19 +4382,19 @@
         <f t="array" ref="S36">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>900</v>
       </c>
-      <c r="U36" s="3">
+      <c r="U36">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>11690</v>
       </c>
-      <c r="V36" s="4">
+      <c r="V36" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>900</v>
       </c>
-      <c r="W36" s="4">
+      <c r="W36" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>11690</v>
       </c>
@@ -4441,19 +4469,19 @@
         <f t="array" ref="S37">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>216.7</v>
       </c>
-      <c r="U37" s="3">
+      <c r="U37">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>370.6</v>
       </c>
-      <c r="V37" s="4">
+      <c r="V37" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>17336</v>
       </c>
-      <c r="W37" s="4">
+      <c r="W37" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>29648</v>
       </c>
@@ -4528,19 +4556,19 @@
         <f t="array" ref="S38">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>USD</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>177</v>
       </c>
-      <c r="U38" s="3">
+      <c r="U38">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>714.4</v>
       </c>
-      <c r="V38" s="4">
+      <c r="V38" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>14160</v>
       </c>
-      <c r="W38" s="4">
+      <c r="W38" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>57152</v>
       </c>
@@ -4615,19 +4643,19 @@
         <f t="array" ref="S39">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>1800</v>
       </c>
-      <c r="U39" s="3">
+      <c r="U39">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>3100</v>
       </c>
-      <c r="V39" s="4">
+      <c r="V39" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>1800</v>
       </c>
-      <c r="W39" s="4">
+      <c r="W39" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>3100</v>
       </c>
@@ -4702,37 +4730,37 @@
         <f t="array" ref="S40">_xlfn.XLOOKUP(Movies[[#This Row],[movie_id]:[movie_id]],Financials[[#All],[movie_id]:[movie_id]],Financials[[#All],[currency]],"Not Avaliable",0)</f>
         <v>INR</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[budget2]]*1000,Movies[[#This Row],[budget2]])</f>
         <v>500</v>
       </c>
-      <c r="U40" s="3">
+      <c r="U40">
         <f>IF(Movies[[#This Row],[unit2]]="Billions",Movies[[#This Row],[revenue2]]*1000,Movies[[#This Row],[revenue2]])</f>
         <v>950</v>
       </c>
-      <c r="V40" s="4">
+      <c r="V40" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[budget_mill]]*80,Movies[[#This Row],[budget_mill]])</f>
         <v>500</v>
       </c>
-      <c r="W40" s="4">
+      <c r="W40" s="3">
         <f>IF(Movies[[#This Row],[currency2]]="USD",Movies[[#This Row],[Revenue_mill]]*80,Movies[[#This Row],[Revenue_mill]])</f>
         <v>950</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="V43" s="5" t="s">
+      <c r="V43" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="W43" s="5" t="s">
+      <c r="W43" s="4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="V44" s="6">
+      <c r="V44" s="5">
         <f>SUM(Movies[Budget_mill_INR])</f>
         <v>264196.40000000002</v>
       </c>
-      <c r="W44" s="6">
+      <c r="W44" s="5">
         <f>SUM(Movies[Revenue_mill_INR])</f>
         <v>1567141</v>
       </c>
@@ -4759,7 +4787,7 @@
       <c r="V48" t="s">
         <v>180</v>
       </c>
-      <c r="W48" s="6">
+      <c r="W48" s="5">
         <f>SUMIF(Movies[industry],"Bollywood",Movies[Revenue_mill_INR])</f>
         <v>80909</v>
       </c>
@@ -4768,7 +4796,7 @@
       <c r="V49" t="s">
         <v>179</v>
       </c>
-      <c r="W49" s="6">
+      <c r="W49" s="5">
         <f>W48/W47</f>
         <v>4494.9444444444443</v>
       </c>
@@ -4777,7 +4805,7 @@
       <c r="V50" t="s">
         <v>181</v>
       </c>
-      <c r="W50" s="7">
+      <c r="W50" s="6">
         <f>W48/W44</f>
         <v>5.1628411227834639E-2</v>
       </c>
@@ -7160,7 +7188,69 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AA73BBD-4347-9747-905E-8242DFFA7228}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="46297aa2-77d1-4586-9726-07d56a535ee7" xsi:nil="true"/>
@@ -7177,15 +7267,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7418,20 +7499,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEFF9027-FBEF-4910-8EE6-13D64012C7E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="46297aa2-77d1-4586-9726-07d56a535ee7"/>
     <ds:schemaRef ds:uri="631564f6-0349-4cc5-b00d-7cf3ba42f824"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6C97D6F-A515-40FC-959A-7BC863F10CEF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
